--- a/設計書_打刻侍/30_詳細設計/01_テーブル設計書/ER図.xlsx
+++ b/設計書_打刻侍/30_詳細設計/01_テーブル設計書/ER図.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arc100.sharepoint.com/sites/msteams_059e6f/Shared Documents/20_基本設計/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t_suzuki\Desktop\dakokusamurai-git-repository\設計書_打刻侍\30_詳細設計\01_テーブル設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="1_{F9589292-C729-45BB-801F-ECFC688CAC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF5CA8E7-7246-4007-83D2-DB6B6C21030C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC93585-E6BB-4C15-AC02-6BA93D157478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{19F90CCC-F67A-4B70-9107-B3E5FF5B0EA9}"/>
   </bookViews>
@@ -769,6 +769,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -777,33 +795,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -823,64 +814,46 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -899,38 +872,65 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3254,7 +3254,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>出金時刻</a:t>
+              <a:t>出勤時刻</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
               <a:ln>
@@ -7966,8 +7966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8A1588-D633-4AB9-AA45-FD303F17F3CA}">
   <dimension ref="A1:BH152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -7983,15 +7983,15 @@
       </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.4">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="7" t="s">
         <v>2</v>
       </c>
@@ -8025,48 +8025,48 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="9"/>
-      <c r="AM2" s="39" t="s">
+      <c r="AM2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="41"/>
-      <c r="AQ2" s="42" t="s">
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="43"/>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="44"/>
-      <c r="AX2" s="48" t="s">
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="50"/>
+      <c r="AX2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="49"/>
-      <c r="BA2" s="50"/>
-      <c r="BB2" s="45">
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="46"/>
+      <c r="BA2" s="47"/>
+      <c r="BB2" s="42">
         <f ca="1">NOW()</f>
-        <v>45448.639274189816</v>
+        <v>45450.427881249998</v>
       </c>
-      <c r="BC2" s="46"/>
-      <c r="BD2" s="46"/>
-      <c r="BE2" s="46"/>
-      <c r="BF2" s="46"/>
-      <c r="BG2" s="46"/>
-      <c r="BH2" s="47"/>
+      <c r="BC2" s="43"/>
+      <c r="BD2" s="43"/>
+      <c r="BE2" s="43"/>
+      <c r="BF2" s="43"/>
+      <c r="BG2" s="43"/>
+      <c r="BH2" s="44"/>
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.4">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="7" t="s">
         <v>7</v>
       </c>
@@ -8100,32 +8100,32 @@
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
       <c r="AL3" s="9"/>
-      <c r="AM3" s="39" t="s">
+      <c r="AM3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="41"/>
-      <c r="AQ3" s="42"/>
-      <c r="AR3" s="43"/>
-      <c r="AS3" s="43"/>
-      <c r="AT3" s="43"/>
-      <c r="AU3" s="43"/>
-      <c r="AV3" s="43"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="39" t="s">
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="53"/>
+      <c r="AQ3" s="48"/>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="49"/>
+      <c r="AT3" s="49"/>
+      <c r="AU3" s="49"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="AY3" s="40"/>
-      <c r="AZ3" s="40"/>
-      <c r="BA3" s="41"/>
-      <c r="BB3" s="36"/>
-      <c r="BC3" s="37"/>
-      <c r="BD3" s="37"/>
-      <c r="BE3" s="37"/>
-      <c r="BF3" s="37"/>
-      <c r="BG3" s="37"/>
-      <c r="BH3" s="38"/>
+      <c r="AY3" s="52"/>
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="53"/>
+      <c r="BB3" s="54"/>
+      <c r="BC3" s="55"/>
+      <c r="BD3" s="55"/>
+      <c r="BE3" s="55"/>
+      <c r="BF3" s="55"/>
+      <c r="BG3" s="55"/>
+      <c r="BH3" s="56"/>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
@@ -8181,17 +8181,17 @@
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="91" t="s">
+      <c r="H6" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="92"/>
-      <c r="J6" s="94" t="s">
+      <c r="I6" s="58"/>
+      <c r="J6" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="95"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="38"/>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
@@ -8229,17 +8229,17 @@
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="94" t="s">
+      <c r="H7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="93"/>
-      <c r="J7" s="94">
+      <c r="I7" s="37"/>
+      <c r="J7" s="36">
         <v>0</v>
       </c>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="95"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="38"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
@@ -8276,17 +8276,17 @@
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
-      <c r="H8" s="96" t="s">
+      <c r="H8" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="97"/>
-      <c r="J8" s="94">
+      <c r="I8" s="60"/>
+      <c r="J8" s="36">
         <v>1</v>
       </c>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="95"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="38"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
@@ -8323,15 +8323,15 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="88" t="s">
+      <c r="H9" s="33"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="90"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="35"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
@@ -9059,11 +9059,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="A2:G2"/>
     <mergeCell ref="BB2:BH2"/>
     <mergeCell ref="AX2:BA2"/>
     <mergeCell ref="AQ2:AW2"/>
@@ -9073,6 +9068,11 @@
     <mergeCell ref="AX3:BA3"/>
     <mergeCell ref="AQ3:AW3"/>
     <mergeCell ref="AM3:AP3"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="A2:G2"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H6:I6"/>
@@ -9406,147 +9406,147 @@
       <c r="AV1" s="10"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="51" t="s">
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="51" t="s">
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="51" t="s">
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="52"/>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="52"/>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="52"/>
-      <c r="AU2" s="52"/>
-      <c r="AV2" s="53"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="96"/>
+      <c r="AF2" s="96"/>
+      <c r="AG2" s="96"/>
+      <c r="AH2" s="96"/>
+      <c r="AI2" s="96"/>
+      <c r="AJ2" s="96"/>
+      <c r="AK2" s="96"/>
+      <c r="AL2" s="96"/>
+      <c r="AM2" s="96"/>
+      <c r="AN2" s="96"/>
+      <c r="AO2" s="96"/>
+      <c r="AP2" s="96"/>
+      <c r="AQ2" s="96"/>
+      <c r="AR2" s="96"/>
+      <c r="AS2" s="96"/>
+      <c r="AT2" s="96"/>
+      <c r="AU2" s="96"/>
+      <c r="AV2" s="95"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A3" s="54">
+      <c r="A3" s="61">
         <f t="shared" ref="A3:A19" si="0">ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55">
+      <c r="B3" s="61"/>
+      <c r="C3" s="76">
         <f ca="1">NOW()</f>
-        <v>45448.639274189816</v>
+        <v>45450.427881249998</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="57"/>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="57"/>
-      <c r="AJ3" s="57"/>
-      <c r="AK3" s="57"/>
-      <c r="AL3" s="57"/>
-      <c r="AM3" s="57"/>
-      <c r="AN3" s="57"/>
-      <c r="AO3" s="57"/>
-      <c r="AP3" s="57"/>
-      <c r="AQ3" s="57"/>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="57"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="68"/>
+      <c r="AI3" s="68"/>
+      <c r="AJ3" s="68"/>
+      <c r="AK3" s="68"/>
+      <c r="AL3" s="68"/>
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="68"/>
+      <c r="AP3" s="68"/>
+      <c r="AQ3" s="68"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="68"/>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A4" s="54">
+      <c r="A4" s="61">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="80"/>
       <c r="W4" s="18"/>
       <c r="X4" s="19"/>
       <c r="Y4" s="19"/>
@@ -9575,31 +9575,31 @@
       <c r="AV4" s="20"/>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A5" s="54">
+      <c r="A5" s="61">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="67"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="92"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="93"/>
       <c r="W5" s="18"/>
       <c r="X5" s="19"/>
       <c r="Y5" s="19"/>
@@ -9628,31 +9628,31 @@
       <c r="AV5" s="20"/>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A6" s="54">
+      <c r="A6" s="61">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="67"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="93"/>
       <c r="W6" s="21"/>
       <c r="X6" s="22"/>
       <c r="Y6" s="22"/>
@@ -9681,855 +9681,937 @@
       <c r="AV6" s="23"/>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A7" s="54">
+      <c r="A7" s="61">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="59"/>
-      <c r="AD7" s="59"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="59"/>
-      <c r="AH7" s="59"/>
-      <c r="AI7" s="59"/>
-      <c r="AJ7" s="59"/>
-      <c r="AK7" s="59"/>
-      <c r="AL7" s="59"/>
-      <c r="AM7" s="59"/>
-      <c r="AN7" s="59"/>
-      <c r="AO7" s="59"/>
-      <c r="AP7" s="59"/>
-      <c r="AQ7" s="59"/>
-      <c r="AR7" s="59"/>
-      <c r="AS7" s="59"/>
-      <c r="AT7" s="59"/>
-      <c r="AU7" s="59"/>
-      <c r="AV7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="79"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="79"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="79"/>
+      <c r="Y7" s="79"/>
+      <c r="Z7" s="79"/>
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="79"/>
+      <c r="AC7" s="79"/>
+      <c r="AD7" s="79"/>
+      <c r="AE7" s="79"/>
+      <c r="AF7" s="79"/>
+      <c r="AG7" s="79"/>
+      <c r="AH7" s="79"/>
+      <c r="AI7" s="79"/>
+      <c r="AJ7" s="79"/>
+      <c r="AK7" s="79"/>
+      <c r="AL7" s="79"/>
+      <c r="AM7" s="79"/>
+      <c r="AN7" s="79"/>
+      <c r="AO7" s="79"/>
+      <c r="AP7" s="79"/>
+      <c r="AQ7" s="79"/>
+      <c r="AR7" s="79"/>
+      <c r="AS7" s="79"/>
+      <c r="AT7" s="79"/>
+      <c r="AU7" s="79"/>
+      <c r="AV7" s="80"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A8" s="54">
+      <c r="A8" s="61">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="73"/>
-      <c r="X8" s="74"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="74"/>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="74"/>
-      <c r="AF8" s="74"/>
-      <c r="AG8" s="74"/>
-      <c r="AH8" s="74"/>
-      <c r="AI8" s="74"/>
-      <c r="AJ8" s="74"/>
-      <c r="AK8" s="74"/>
-      <c r="AL8" s="74"/>
-      <c r="AM8" s="74"/>
-      <c r="AN8" s="74"/>
-      <c r="AO8" s="74"/>
-      <c r="AP8" s="74"/>
-      <c r="AQ8" s="74"/>
-      <c r="AR8" s="74"/>
-      <c r="AS8" s="74"/>
-      <c r="AT8" s="74"/>
-      <c r="AU8" s="74"/>
-      <c r="AV8" s="75"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="85"/>
+      <c r="T8" s="85"/>
+      <c r="U8" s="85"/>
+      <c r="V8" s="85"/>
+      <c r="W8" s="84"/>
+      <c r="X8" s="85"/>
+      <c r="Y8" s="85"/>
+      <c r="Z8" s="85"/>
+      <c r="AA8" s="85"/>
+      <c r="AB8" s="85"/>
+      <c r="AC8" s="85"/>
+      <c r="AD8" s="85"/>
+      <c r="AE8" s="85"/>
+      <c r="AF8" s="85"/>
+      <c r="AG8" s="85"/>
+      <c r="AH8" s="85"/>
+      <c r="AI8" s="85"/>
+      <c r="AJ8" s="85"/>
+      <c r="AK8" s="85"/>
+      <c r="AL8" s="85"/>
+      <c r="AM8" s="85"/>
+      <c r="AN8" s="85"/>
+      <c r="AO8" s="85"/>
+      <c r="AP8" s="85"/>
+      <c r="AQ8" s="85"/>
+      <c r="AR8" s="85"/>
+      <c r="AS8" s="85"/>
+      <c r="AT8" s="85"/>
+      <c r="AU8" s="85"/>
+      <c r="AV8" s="86"/>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A9" s="54">
+      <c r="A9" s="61">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="77"/>
-      <c r="X9" s="77"/>
-      <c r="Y9" s="77"/>
-      <c r="Z9" s="77"/>
-      <c r="AA9" s="77"/>
-      <c r="AB9" s="77"/>
-      <c r="AC9" s="77"/>
-      <c r="AD9" s="77"/>
-      <c r="AE9" s="77"/>
-      <c r="AF9" s="77"/>
-      <c r="AG9" s="77"/>
-      <c r="AH9" s="77"/>
-      <c r="AI9" s="77"/>
-      <c r="AJ9" s="77"/>
-      <c r="AK9" s="77"/>
-      <c r="AL9" s="77"/>
-      <c r="AM9" s="77"/>
-      <c r="AN9" s="77"/>
-      <c r="AO9" s="77"/>
-      <c r="AP9" s="77"/>
-      <c r="AQ9" s="77"/>
-      <c r="AR9" s="77"/>
-      <c r="AS9" s="77"/>
-      <c r="AT9" s="77"/>
-      <c r="AU9" s="77"/>
-      <c r="AV9" s="77"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="75"/>
+      <c r="AB9" s="75"/>
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="75"/>
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="75"/>
+      <c r="AG9" s="75"/>
+      <c r="AH9" s="75"/>
+      <c r="AI9" s="75"/>
+      <c r="AJ9" s="75"/>
+      <c r="AK9" s="75"/>
+      <c r="AL9" s="75"/>
+      <c r="AM9" s="75"/>
+      <c r="AN9" s="75"/>
+      <c r="AO9" s="75"/>
+      <c r="AP9" s="75"/>
+      <c r="AQ9" s="75"/>
+      <c r="AR9" s="75"/>
+      <c r="AS9" s="75"/>
+      <c r="AT9" s="75"/>
+      <c r="AU9" s="75"/>
+      <c r="AV9" s="75"/>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A10" s="54">
+      <c r="A10" s="61">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="77"/>
-      <c r="X10" s="77"/>
-      <c r="Y10" s="77"/>
-      <c r="Z10" s="77"/>
-      <c r="AA10" s="77"/>
-      <c r="AB10" s="77"/>
-      <c r="AC10" s="77"/>
-      <c r="AD10" s="77"/>
-      <c r="AE10" s="77"/>
-      <c r="AF10" s="77"/>
-      <c r="AG10" s="77"/>
-      <c r="AH10" s="77"/>
-      <c r="AI10" s="77"/>
-      <c r="AJ10" s="77"/>
-      <c r="AK10" s="77"/>
-      <c r="AL10" s="77"/>
-      <c r="AM10" s="77"/>
-      <c r="AN10" s="77"/>
-      <c r="AO10" s="77"/>
-      <c r="AP10" s="77"/>
-      <c r="AQ10" s="77"/>
-      <c r="AR10" s="77"/>
-      <c r="AS10" s="77"/>
-      <c r="AT10" s="77"/>
-      <c r="AU10" s="77"/>
-      <c r="AV10" s="77"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="68"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="75"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="75"/>
+      <c r="AH10" s="75"/>
+      <c r="AI10" s="75"/>
+      <c r="AJ10" s="75"/>
+      <c r="AK10" s="75"/>
+      <c r="AL10" s="75"/>
+      <c r="AM10" s="75"/>
+      <c r="AN10" s="75"/>
+      <c r="AO10" s="75"/>
+      <c r="AP10" s="75"/>
+      <c r="AQ10" s="75"/>
+      <c r="AR10" s="75"/>
+      <c r="AS10" s="75"/>
+      <c r="AT10" s="75"/>
+      <c r="AU10" s="75"/>
+      <c r="AV10" s="75"/>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A11" s="54">
+      <c r="A11" s="61">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="78"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="78"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="78"/>
-      <c r="AE11" s="78"/>
-      <c r="AF11" s="78"/>
-      <c r="AG11" s="78"/>
-      <c r="AH11" s="78"/>
-      <c r="AI11" s="78"/>
-      <c r="AJ11" s="78"/>
-      <c r="AK11" s="78"/>
-      <c r="AL11" s="78"/>
-      <c r="AM11" s="78"/>
-      <c r="AN11" s="78"/>
-      <c r="AO11" s="78"/>
-      <c r="AP11" s="78"/>
-      <c r="AQ11" s="78"/>
-      <c r="AR11" s="78"/>
-      <c r="AS11" s="78"/>
-      <c r="AT11" s="78"/>
-      <c r="AU11" s="78"/>
-      <c r="AV11" s="78"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="72"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="72"/>
+      <c r="AD11" s="72"/>
+      <c r="AE11" s="72"/>
+      <c r="AF11" s="72"/>
+      <c r="AG11" s="72"/>
+      <c r="AH11" s="72"/>
+      <c r="AI11" s="72"/>
+      <c r="AJ11" s="72"/>
+      <c r="AK11" s="72"/>
+      <c r="AL11" s="72"/>
+      <c r="AM11" s="72"/>
+      <c r="AN11" s="72"/>
+      <c r="AO11" s="72"/>
+      <c r="AP11" s="72"/>
+      <c r="AQ11" s="72"/>
+      <c r="AR11" s="72"/>
+      <c r="AS11" s="72"/>
+      <c r="AT11" s="72"/>
+      <c r="AU11" s="72"/>
+      <c r="AV11" s="72"/>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A12" s="54">
+      <c r="A12" s="61">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="78"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="78"/>
-      <c r="Z12" s="78"/>
-      <c r="AA12" s="78"/>
-      <c r="AB12" s="78"/>
-      <c r="AC12" s="78"/>
-      <c r="AD12" s="78"/>
-      <c r="AE12" s="78"/>
-      <c r="AF12" s="78"/>
-      <c r="AG12" s="78"/>
-      <c r="AH12" s="78"/>
-      <c r="AI12" s="78"/>
-      <c r="AJ12" s="78"/>
-      <c r="AK12" s="78"/>
-      <c r="AL12" s="78"/>
-      <c r="AM12" s="78"/>
-      <c r="AN12" s="78"/>
-      <c r="AO12" s="78"/>
-      <c r="AP12" s="78"/>
-      <c r="AQ12" s="78"/>
-      <c r="AR12" s="78"/>
-      <c r="AS12" s="78"/>
-      <c r="AT12" s="78"/>
-      <c r="AU12" s="78"/>
-      <c r="AV12" s="78"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="72"/>
+      <c r="Z12" s="72"/>
+      <c r="AA12" s="72"/>
+      <c r="AB12" s="72"/>
+      <c r="AC12" s="72"/>
+      <c r="AD12" s="72"/>
+      <c r="AE12" s="72"/>
+      <c r="AF12" s="72"/>
+      <c r="AG12" s="72"/>
+      <c r="AH12" s="72"/>
+      <c r="AI12" s="72"/>
+      <c r="AJ12" s="72"/>
+      <c r="AK12" s="72"/>
+      <c r="AL12" s="72"/>
+      <c r="AM12" s="72"/>
+      <c r="AN12" s="72"/>
+      <c r="AO12" s="72"/>
+      <c r="AP12" s="72"/>
+      <c r="AQ12" s="72"/>
+      <c r="AR12" s="72"/>
+      <c r="AS12" s="72"/>
+      <c r="AT12" s="72"/>
+      <c r="AU12" s="72"/>
+      <c r="AV12" s="72"/>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A13" s="54">
+      <c r="A13" s="61">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="78"/>
-      <c r="X13" s="78"/>
-      <c r="Y13" s="78"/>
-      <c r="Z13" s="78"/>
-      <c r="AA13" s="78"/>
-      <c r="AB13" s="78"/>
-      <c r="AC13" s="78"/>
-      <c r="AD13" s="78"/>
-      <c r="AE13" s="78"/>
-      <c r="AF13" s="78"/>
-      <c r="AG13" s="78"/>
-      <c r="AH13" s="78"/>
-      <c r="AI13" s="78"/>
-      <c r="AJ13" s="78"/>
-      <c r="AK13" s="78"/>
-      <c r="AL13" s="78"/>
-      <c r="AM13" s="78"/>
-      <c r="AN13" s="78"/>
-      <c r="AO13" s="78"/>
-      <c r="AP13" s="78"/>
-      <c r="AQ13" s="78"/>
-      <c r="AR13" s="78"/>
-      <c r="AS13" s="78"/>
-      <c r="AT13" s="78"/>
-      <c r="AU13" s="78"/>
-      <c r="AV13" s="78"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="72"/>
+      <c r="AB13" s="72"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="72"/>
+      <c r="AF13" s="72"/>
+      <c r="AG13" s="72"/>
+      <c r="AH13" s="72"/>
+      <c r="AI13" s="72"/>
+      <c r="AJ13" s="72"/>
+      <c r="AK13" s="72"/>
+      <c r="AL13" s="72"/>
+      <c r="AM13" s="72"/>
+      <c r="AN13" s="72"/>
+      <c r="AO13" s="72"/>
+      <c r="AP13" s="72"/>
+      <c r="AQ13" s="72"/>
+      <c r="AR13" s="72"/>
+      <c r="AS13" s="72"/>
+      <c r="AT13" s="72"/>
+      <c r="AU13" s="72"/>
+      <c r="AV13" s="72"/>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A14" s="54">
+      <c r="A14" s="61">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="78"/>
-      <c r="X14" s="78"/>
-      <c r="Y14" s="78"/>
-      <c r="Z14" s="78"/>
-      <c r="AA14" s="78"/>
-      <c r="AB14" s="78"/>
-      <c r="AC14" s="78"/>
-      <c r="AD14" s="78"/>
-      <c r="AE14" s="78"/>
-      <c r="AF14" s="78"/>
-      <c r="AG14" s="78"/>
-      <c r="AH14" s="78"/>
-      <c r="AI14" s="78"/>
-      <c r="AJ14" s="78"/>
-      <c r="AK14" s="78"/>
-      <c r="AL14" s="78"/>
-      <c r="AM14" s="78"/>
-      <c r="AN14" s="78"/>
-      <c r="AO14" s="78"/>
-      <c r="AP14" s="78"/>
-      <c r="AQ14" s="78"/>
-      <c r="AR14" s="78"/>
-      <c r="AS14" s="78"/>
-      <c r="AT14" s="78"/>
-      <c r="AU14" s="78"/>
-      <c r="AV14" s="78"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="72"/>
+      <c r="AA14" s="72"/>
+      <c r="AB14" s="72"/>
+      <c r="AC14" s="72"/>
+      <c r="AD14" s="72"/>
+      <c r="AE14" s="72"/>
+      <c r="AF14" s="72"/>
+      <c r="AG14" s="72"/>
+      <c r="AH14" s="72"/>
+      <c r="AI14" s="72"/>
+      <c r="AJ14" s="72"/>
+      <c r="AK14" s="72"/>
+      <c r="AL14" s="72"/>
+      <c r="AM14" s="72"/>
+      <c r="AN14" s="72"/>
+      <c r="AO14" s="72"/>
+      <c r="AP14" s="72"/>
+      <c r="AQ14" s="72"/>
+      <c r="AR14" s="72"/>
+      <c r="AS14" s="72"/>
+      <c r="AT14" s="72"/>
+      <c r="AU14" s="72"/>
+      <c r="AV14" s="72"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A15" s="54">
+      <c r="A15" s="61">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="78"/>
-      <c r="X15" s="78"/>
-      <c r="Y15" s="78"/>
-      <c r="Z15" s="78"/>
-      <c r="AA15" s="78"/>
-      <c r="AB15" s="78"/>
-      <c r="AC15" s="78"/>
-      <c r="AD15" s="78"/>
-      <c r="AE15" s="78"/>
-      <c r="AF15" s="78"/>
-      <c r="AG15" s="78"/>
-      <c r="AH15" s="78"/>
-      <c r="AI15" s="78"/>
-      <c r="AJ15" s="78"/>
-      <c r="AK15" s="78"/>
-      <c r="AL15" s="78"/>
-      <c r="AM15" s="78"/>
-      <c r="AN15" s="78"/>
-      <c r="AO15" s="78"/>
-      <c r="AP15" s="78"/>
-      <c r="AQ15" s="78"/>
-      <c r="AR15" s="78"/>
-      <c r="AS15" s="78"/>
-      <c r="AT15" s="78"/>
-      <c r="AU15" s="78"/>
-      <c r="AV15" s="78"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="72"/>
+      <c r="AE15" s="72"/>
+      <c r="AF15" s="72"/>
+      <c r="AG15" s="72"/>
+      <c r="AH15" s="72"/>
+      <c r="AI15" s="72"/>
+      <c r="AJ15" s="72"/>
+      <c r="AK15" s="72"/>
+      <c r="AL15" s="72"/>
+      <c r="AM15" s="72"/>
+      <c r="AN15" s="72"/>
+      <c r="AO15" s="72"/>
+      <c r="AP15" s="72"/>
+      <c r="AQ15" s="72"/>
+      <c r="AR15" s="72"/>
+      <c r="AS15" s="72"/>
+      <c r="AT15" s="72"/>
+      <c r="AU15" s="72"/>
+      <c r="AV15" s="72"/>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A16" s="54">
+      <c r="A16" s="61">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="78"/>
-      <c r="X16" s="78"/>
-      <c r="Y16" s="78"/>
-      <c r="Z16" s="78"/>
-      <c r="AA16" s="78"/>
-      <c r="AB16" s="78"/>
-      <c r="AC16" s="78"/>
-      <c r="AD16" s="78"/>
-      <c r="AE16" s="78"/>
-      <c r="AF16" s="78"/>
-      <c r="AG16" s="78"/>
-      <c r="AH16" s="78"/>
-      <c r="AI16" s="78"/>
-      <c r="AJ16" s="78"/>
-      <c r="AK16" s="78"/>
-      <c r="AL16" s="78"/>
-      <c r="AM16" s="78"/>
-      <c r="AN16" s="78"/>
-      <c r="AO16" s="78"/>
-      <c r="AP16" s="78"/>
-      <c r="AQ16" s="78"/>
-      <c r="AR16" s="78"/>
-      <c r="AS16" s="78"/>
-      <c r="AT16" s="78"/>
-      <c r="AU16" s="78"/>
-      <c r="AV16" s="78"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="72"/>
+      <c r="AE16" s="72"/>
+      <c r="AF16" s="72"/>
+      <c r="AG16" s="72"/>
+      <c r="AH16" s="72"/>
+      <c r="AI16" s="72"/>
+      <c r="AJ16" s="72"/>
+      <c r="AK16" s="72"/>
+      <c r="AL16" s="72"/>
+      <c r="AM16" s="72"/>
+      <c r="AN16" s="72"/>
+      <c r="AO16" s="72"/>
+      <c r="AP16" s="72"/>
+      <c r="AQ16" s="72"/>
+      <c r="AR16" s="72"/>
+      <c r="AS16" s="72"/>
+      <c r="AT16" s="72"/>
+      <c r="AU16" s="72"/>
+      <c r="AV16" s="72"/>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A17" s="54">
+      <c r="A17" s="61">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="78"/>
-      <c r="X17" s="78"/>
-      <c r="Y17" s="78"/>
-      <c r="Z17" s="78"/>
-      <c r="AA17" s="78"/>
-      <c r="AB17" s="78"/>
-      <c r="AC17" s="78"/>
-      <c r="AD17" s="78"/>
-      <c r="AE17" s="78"/>
-      <c r="AF17" s="78"/>
-      <c r="AG17" s="78"/>
-      <c r="AH17" s="78"/>
-      <c r="AI17" s="78"/>
-      <c r="AJ17" s="78"/>
-      <c r="AK17" s="78"/>
-      <c r="AL17" s="78"/>
-      <c r="AM17" s="78"/>
-      <c r="AN17" s="78"/>
-      <c r="AO17" s="78"/>
-      <c r="AP17" s="78"/>
-      <c r="AQ17" s="78"/>
-      <c r="AR17" s="78"/>
-      <c r="AS17" s="78"/>
-      <c r="AT17" s="78"/>
-      <c r="AU17" s="78"/>
-      <c r="AV17" s="78"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="72"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="72"/>
+      <c r="AA17" s="72"/>
+      <c r="AB17" s="72"/>
+      <c r="AC17" s="72"/>
+      <c r="AD17" s="72"/>
+      <c r="AE17" s="72"/>
+      <c r="AF17" s="72"/>
+      <c r="AG17" s="72"/>
+      <c r="AH17" s="72"/>
+      <c r="AI17" s="72"/>
+      <c r="AJ17" s="72"/>
+      <c r="AK17" s="72"/>
+      <c r="AL17" s="72"/>
+      <c r="AM17" s="72"/>
+      <c r="AN17" s="72"/>
+      <c r="AO17" s="72"/>
+      <c r="AP17" s="72"/>
+      <c r="AQ17" s="72"/>
+      <c r="AR17" s="72"/>
+      <c r="AS17" s="72"/>
+      <c r="AT17" s="72"/>
+      <c r="AU17" s="72"/>
+      <c r="AV17" s="72"/>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A18" s="54">
+      <c r="A18" s="61">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="78"/>
-      <c r="X18" s="78"/>
-      <c r="Y18" s="78"/>
-      <c r="Z18" s="78"/>
-      <c r="AA18" s="78"/>
-      <c r="AB18" s="78"/>
-      <c r="AC18" s="78"/>
-      <c r="AD18" s="78"/>
-      <c r="AE18" s="78"/>
-      <c r="AF18" s="78"/>
-      <c r="AG18" s="78"/>
-      <c r="AH18" s="78"/>
-      <c r="AI18" s="78"/>
-      <c r="AJ18" s="78"/>
-      <c r="AK18" s="78"/>
-      <c r="AL18" s="78"/>
-      <c r="AM18" s="78"/>
-      <c r="AN18" s="78"/>
-      <c r="AO18" s="78"/>
-      <c r="AP18" s="78"/>
-      <c r="AQ18" s="78"/>
-      <c r="AR18" s="78"/>
-      <c r="AS18" s="78"/>
-      <c r="AT18" s="78"/>
-      <c r="AU18" s="78"/>
-      <c r="AV18" s="78"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="72"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="72"/>
+      <c r="AB18" s="72"/>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="72"/>
+      <c r="AE18" s="72"/>
+      <c r="AF18" s="72"/>
+      <c r="AG18" s="72"/>
+      <c r="AH18" s="72"/>
+      <c r="AI18" s="72"/>
+      <c r="AJ18" s="72"/>
+      <c r="AK18" s="72"/>
+      <c r="AL18" s="72"/>
+      <c r="AM18" s="72"/>
+      <c r="AN18" s="72"/>
+      <c r="AO18" s="72"/>
+      <c r="AP18" s="72"/>
+      <c r="AQ18" s="72"/>
+      <c r="AR18" s="72"/>
+      <c r="AS18" s="72"/>
+      <c r="AT18" s="72"/>
+      <c r="AU18" s="72"/>
+      <c r="AV18" s="72"/>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A19" s="54">
+      <c r="A19" s="61">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="85"/>
-      <c r="X19" s="86"/>
-      <c r="Y19" s="86"/>
-      <c r="Z19" s="86"/>
-      <c r="AA19" s="86"/>
-      <c r="AB19" s="86"/>
-      <c r="AC19" s="86"/>
-      <c r="AD19" s="86"/>
-      <c r="AE19" s="86"/>
-      <c r="AF19" s="86"/>
-      <c r="AG19" s="86"/>
-      <c r="AH19" s="86"/>
-      <c r="AI19" s="86"/>
-      <c r="AJ19" s="86"/>
-      <c r="AK19" s="86"/>
-      <c r="AL19" s="86"/>
-      <c r="AM19" s="86"/>
-      <c r="AN19" s="86"/>
-      <c r="AO19" s="86"/>
-      <c r="AP19" s="86"/>
-      <c r="AQ19" s="86"/>
-      <c r="AR19" s="86"/>
-      <c r="AS19" s="86"/>
-      <c r="AT19" s="86"/>
-      <c r="AU19" s="86"/>
-      <c r="AV19" s="87"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="70"/>
+      <c r="Y19" s="70"/>
+      <c r="Z19" s="70"/>
+      <c r="AA19" s="70"/>
+      <c r="AB19" s="70"/>
+      <c r="AC19" s="70"/>
+      <c r="AD19" s="70"/>
+      <c r="AE19" s="70"/>
+      <c r="AF19" s="70"/>
+      <c r="AG19" s="70"/>
+      <c r="AH19" s="70"/>
+      <c r="AI19" s="70"/>
+      <c r="AJ19" s="70"/>
+      <c r="AK19" s="70"/>
+      <c r="AL19" s="70"/>
+      <c r="AM19" s="70"/>
+      <c r="AN19" s="70"/>
+      <c r="AO19" s="70"/>
+      <c r="AP19" s="70"/>
+      <c r="AQ19" s="70"/>
+      <c r="AR19" s="70"/>
+      <c r="AS19" s="70"/>
+      <c r="AT19" s="70"/>
+      <c r="AU19" s="70"/>
+      <c r="AV19" s="71"/>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A20" s="54">
+      <c r="A20" s="61">
         <f t="shared" ref="A20:A22" si="1">ROW()-2</f>
         <v>18</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="86"/>
-      <c r="U20" s="86"/>
-      <c r="V20" s="87"/>
-      <c r="W20" s="85"/>
-      <c r="X20" s="86"/>
-      <c r="Y20" s="86"/>
-      <c r="Z20" s="86"/>
-      <c r="AA20" s="86"/>
-      <c r="AB20" s="86"/>
-      <c r="AC20" s="86"/>
-      <c r="AD20" s="86"/>
-      <c r="AE20" s="86"/>
-      <c r="AF20" s="86"/>
-      <c r="AG20" s="86"/>
-      <c r="AH20" s="86"/>
-      <c r="AI20" s="86"/>
-      <c r="AJ20" s="86"/>
-      <c r="AK20" s="86"/>
-      <c r="AL20" s="86"/>
-      <c r="AM20" s="86"/>
-      <c r="AN20" s="86"/>
-      <c r="AO20" s="86"/>
-      <c r="AP20" s="86"/>
-      <c r="AQ20" s="86"/>
-      <c r="AR20" s="86"/>
-      <c r="AS20" s="86"/>
-      <c r="AT20" s="86"/>
-      <c r="AU20" s="86"/>
-      <c r="AV20" s="87"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="69"/>
+      <c r="X20" s="70"/>
+      <c r="Y20" s="70"/>
+      <c r="Z20" s="70"/>
+      <c r="AA20" s="70"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="70"/>
+      <c r="AD20" s="70"/>
+      <c r="AE20" s="70"/>
+      <c r="AF20" s="70"/>
+      <c r="AG20" s="70"/>
+      <c r="AH20" s="70"/>
+      <c r="AI20" s="70"/>
+      <c r="AJ20" s="70"/>
+      <c r="AK20" s="70"/>
+      <c r="AL20" s="70"/>
+      <c r="AM20" s="70"/>
+      <c r="AN20" s="70"/>
+      <c r="AO20" s="70"/>
+      <c r="AP20" s="70"/>
+      <c r="AQ20" s="70"/>
+      <c r="AR20" s="70"/>
+      <c r="AS20" s="70"/>
+      <c r="AT20" s="70"/>
+      <c r="AU20" s="70"/>
+      <c r="AV20" s="71"/>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A21" s="54">
+      <c r="A21" s="61">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="86"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="86"/>
-      <c r="T21" s="86"/>
-      <c r="U21" s="86"/>
-      <c r="V21" s="87"/>
-      <c r="W21" s="85"/>
-      <c r="X21" s="86"/>
-      <c r="Y21" s="86"/>
-      <c r="Z21" s="86"/>
-      <c r="AA21" s="86"/>
-      <c r="AB21" s="86"/>
-      <c r="AC21" s="86"/>
-      <c r="AD21" s="86"/>
-      <c r="AE21" s="86"/>
-      <c r="AF21" s="86"/>
-      <c r="AG21" s="86"/>
-      <c r="AH21" s="86"/>
-      <c r="AI21" s="86"/>
-      <c r="AJ21" s="86"/>
-      <c r="AK21" s="86"/>
-      <c r="AL21" s="86"/>
-      <c r="AM21" s="86"/>
-      <c r="AN21" s="86"/>
-      <c r="AO21" s="86"/>
-      <c r="AP21" s="86"/>
-      <c r="AQ21" s="86"/>
-      <c r="AR21" s="86"/>
-      <c r="AS21" s="86"/>
-      <c r="AT21" s="86"/>
-      <c r="AU21" s="86"/>
-      <c r="AV21" s="87"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="69"/>
+      <c r="X21" s="70"/>
+      <c r="Y21" s="70"/>
+      <c r="Z21" s="70"/>
+      <c r="AA21" s="70"/>
+      <c r="AB21" s="70"/>
+      <c r="AC21" s="70"/>
+      <c r="AD21" s="70"/>
+      <c r="AE21" s="70"/>
+      <c r="AF21" s="70"/>
+      <c r="AG21" s="70"/>
+      <c r="AH21" s="70"/>
+      <c r="AI21" s="70"/>
+      <c r="AJ21" s="70"/>
+      <c r="AK21" s="70"/>
+      <c r="AL21" s="70"/>
+      <c r="AM21" s="70"/>
+      <c r="AN21" s="70"/>
+      <c r="AO21" s="70"/>
+      <c r="AP21" s="70"/>
+      <c r="AQ21" s="70"/>
+      <c r="AR21" s="70"/>
+      <c r="AS21" s="70"/>
+      <c r="AT21" s="70"/>
+      <c r="AU21" s="70"/>
+      <c r="AV21" s="71"/>
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A22" s="78">
+      <c r="A22" s="72">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="86"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="86"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="86"/>
-      <c r="U22" s="86"/>
-      <c r="V22" s="87"/>
-      <c r="W22" s="85"/>
-      <c r="X22" s="86"/>
-      <c r="Y22" s="86"/>
-      <c r="Z22" s="86"/>
-      <c r="AA22" s="86"/>
-      <c r="AB22" s="86"/>
-      <c r="AC22" s="86"/>
-      <c r="AD22" s="86"/>
-      <c r="AE22" s="86"/>
-      <c r="AF22" s="86"/>
-      <c r="AG22" s="86"/>
-      <c r="AH22" s="86"/>
-      <c r="AI22" s="86"/>
-      <c r="AJ22" s="86"/>
-      <c r="AK22" s="86"/>
-      <c r="AL22" s="86"/>
-      <c r="AM22" s="86"/>
-      <c r="AN22" s="86"/>
-      <c r="AO22" s="86"/>
-      <c r="AP22" s="86"/>
-      <c r="AQ22" s="86"/>
-      <c r="AR22" s="86"/>
-      <c r="AS22" s="86"/>
-      <c r="AT22" s="86"/>
-      <c r="AU22" s="86"/>
-      <c r="AV22" s="87"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="70"/>
+      <c r="Y22" s="70"/>
+      <c r="Z22" s="70"/>
+      <c r="AA22" s="70"/>
+      <c r="AB22" s="70"/>
+      <c r="AC22" s="70"/>
+      <c r="AD22" s="70"/>
+      <c r="AE22" s="70"/>
+      <c r="AF22" s="70"/>
+      <c r="AG22" s="70"/>
+      <c r="AH22" s="70"/>
+      <c r="AI22" s="70"/>
+      <c r="AJ22" s="70"/>
+      <c r="AK22" s="70"/>
+      <c r="AL22" s="70"/>
+      <c r="AM22" s="70"/>
+      <c r="AN22" s="70"/>
+      <c r="AO22" s="70"/>
+      <c r="AP22" s="70"/>
+      <c r="AQ22" s="70"/>
+      <c r="AR22" s="70"/>
+      <c r="AS22" s="70"/>
+      <c r="AT22" s="70"/>
+      <c r="AU22" s="70"/>
+      <c r="AV22" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="102">
+    <mergeCell ref="W2:AV2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:V3"/>
+    <mergeCell ref="W3:AV3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="M4:V4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="M5:V5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:V2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="M6:V6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="M7:V7"/>
+    <mergeCell ref="W7:AV7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="M8:V8"/>
+    <mergeCell ref="W8:AV8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="M9:V9"/>
+    <mergeCell ref="W9:AV9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="M10:V10"/>
+    <mergeCell ref="W10:AV10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:V11"/>
+    <mergeCell ref="W11:AV11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="M12:V12"/>
+    <mergeCell ref="W12:AV12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="M13:V13"/>
+    <mergeCell ref="W13:AV13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="M14:V14"/>
+    <mergeCell ref="W14:AV14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:V15"/>
+    <mergeCell ref="W15:AV15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="M16:V16"/>
+    <mergeCell ref="W16:AV16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="M17:V17"/>
+    <mergeCell ref="W17:AV17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="M18:V18"/>
+    <mergeCell ref="W18:AV18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="G19:L19"/>
@@ -10550,88 +10632,6 @@
     <mergeCell ref="G21:L21"/>
     <mergeCell ref="M21:V21"/>
     <mergeCell ref="W21:AV21"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="M17:V17"/>
-    <mergeCell ref="W17:AV17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="M18:V18"/>
-    <mergeCell ref="W18:AV18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:V15"/>
-    <mergeCell ref="W15:AV15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="M16:V16"/>
-    <mergeCell ref="W16:AV16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="M13:V13"/>
-    <mergeCell ref="W13:AV13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="M14:V14"/>
-    <mergeCell ref="W14:AV14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:V11"/>
-    <mergeCell ref="W11:AV11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="M12:V12"/>
-    <mergeCell ref="W12:AV12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="M9:V9"/>
-    <mergeCell ref="W9:AV9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="M10:V10"/>
-    <mergeCell ref="W10:AV10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="M7:V7"/>
-    <mergeCell ref="W7:AV7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="M8:V8"/>
-    <mergeCell ref="W8:AV8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="M5:V5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:V2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="M6:V6"/>
-    <mergeCell ref="W2:AV2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:V3"/>
-    <mergeCell ref="W3:AV3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="M4:V4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10640,6 +10640,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F3BD9A264D891E42A87CAED8E149BEE6" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ca7c401e516c40050d0899be8bcf9780">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13" xmlns:ns3="675b6bc6-fb4a-4724-a080-4fd9de868aa1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66b658899a6e9f32da36e2c4c1c4c8de" ns2:_="" ns3:_="">
     <xsd:import namespace="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
@@ -10834,28 +10854,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AAF5CE5-638C-4E38-819F-992697539496}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA24FBF1-8ACD-4BDF-9D06-630E37B02F4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
+    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10867,5 +10874,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA24FBF1-8ACD-4BDF-9D06-630E37B02F4B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AAF5CE5-638C-4E38-819F-992697539496}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
+    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>